--- a/SCH-STH/Baseline Mapping/Angola/May 2021/ao_sch_sth_baseline_3_kato_katz_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Angola/May 2021/ao_sch_sth_baseline_3_kato_katz_202105.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\SCH-STH\Baseline Mapping\Angola\May 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCFF25A-4706-4CDE-BDA2-2BF75CD0407D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AFB67F-DA92-40EF-BE16-6C1E19B4D7EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3963" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3966" uniqueCount="628">
   <si>
     <t>form_title</t>
   </si>
@@ -1905,6 +1905,15 @@
   </si>
   <si>
     <t xml:space="preserve">allow_choice_duplicates </t>
+  </si>
+  <si>
+    <t>. &gt; 514</t>
+  </si>
+  <si>
+    <t>The code must be greater than 514</t>
+  </si>
+  <si>
+    <t>O código deve ser maior que 514</t>
   </si>
 </sst>
 </file>
@@ -2416,11 +2425,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2710,7 +2719,7 @@
     </row>
     <row r="9" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>594</v>
@@ -2814,8 +2823,15 @@
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="33"/>
-      <c r="J12" s="32"/>
-      <c r="L12" s="32"/>
+      <c r="J12" t="s">
+        <v>625</v>
+      </c>
+      <c r="K12" t="s">
+        <v>626</v>
+      </c>
+      <c r="L12" t="s">
+        <v>627</v>
+      </c>
       <c r="N12" t="s">
         <v>613</v>
       </c>
@@ -21162,7 +21178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>

--- a/SCH-STH/Baseline Mapping/Angola/May 2021/ao_sch_sth_baseline_3_kato_katz_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Angola/May 2021/ao_sch_sth_baseline_3_kato_katz_202105.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\SCH-STH\Baseline Mapping\Angola\May 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AFB67F-DA92-40EF-BE16-6C1E19B4D7EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E7573C-B28F-42C1-98B2-D51DF03497D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -2425,36 +2425,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="25" customWidth="1"/>
-    <col min="2" max="2" width="21.25" style="25" customWidth="1"/>
-    <col min="3" max="3" width="34.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="34.38671875" style="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="25" customWidth="1"/>
-    <col min="5" max="5" width="33.375" style="25" customWidth="1"/>
-    <col min="6" max="6" width="29.125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="30.75" style="25" customWidth="1"/>
-    <col min="8" max="8" width="47.375" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="16.875" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.875" style="25" customWidth="1"/>
+    <col min="5" max="5" width="33.38671875" style="25" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="30.71875" style="25" customWidth="1"/>
+    <col min="8" max="8" width="47.38671875" customWidth="1"/>
+    <col min="9" max="9" width="12.609375" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" style="25" customWidth="1"/>
     <col min="12" max="12" width="29.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.5" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.625" customWidth="1"/>
-    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.875" customWidth="1"/>
-    <col min="18" max="18" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.609375" customWidth="1"/>
+    <col min="16" max="16" width="9.71875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" customWidth="1"/>
+    <col min="18" max="18" width="36.609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="37" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="37" customFormat="1" ht="31.35" x14ac:dyDescent="0.5">
       <c r="A2" s="30" t="s">
         <v>67</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="Q2" s="34"/>
       <c r="R2" s="36"/>
     </row>
-    <row r="3" spans="1:18" s="37" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="37" customFormat="1" ht="31.35" x14ac:dyDescent="0.5">
       <c r="A3" s="30" t="s">
         <v>68</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A4" s="30"/>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
@@ -2596,7 +2596,7 @@
       <c r="Q4" s="34"/>
       <c r="R4" s="36"/>
     </row>
-    <row r="5" spans="1:18" s="37" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="37" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="30" t="s">
         <v>69</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="30" t="s">
         <v>587</v>
       </c>
@@ -2661,7 +2661,7 @@
       <c r="Q6" s="34"/>
       <c r="R6" s="36"/>
     </row>
-    <row r="7" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A7" s="30"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -2681,7 +2681,7 @@
       <c r="Q7" s="34"/>
       <c r="R7" s="36"/>
     </row>
-    <row r="8" spans="1:18" s="37" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="37" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="30" t="s">
         <v>71</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="30" t="s">
         <v>19</v>
       </c>
@@ -2748,7 +2748,7 @@
       <c r="Q9" s="34"/>
       <c r="R9" s="36"/>
     </row>
-    <row r="10" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A10" s="30"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -2768,7 +2768,7 @@
       <c r="Q10" s="34"/>
       <c r="R10" s="36"/>
     </row>
-    <row r="11" spans="1:18" s="37" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="37" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="30" t="s">
         <v>81</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="37" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="37" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="30" t="s">
         <v>22</v>
       </c>
@@ -2842,7 +2842,7 @@
       <c r="Q12" s="34"/>
       <c r="R12" s="36"/>
     </row>
-    <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="23"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2862,7 +2862,7 @@
       <c r="Q13" s="13"/>
       <c r="R13" s="14"/>
     </row>
-    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="23" t="s">
         <v>21</v>
       </c>
@@ -2892,7 +2892,7 @@
       <c r="Q14" s="13"/>
       <c r="R14" s="14"/>
     </row>
-    <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="23" t="s">
         <v>578</v>
       </c>
@@ -2922,7 +2922,7 @@
       <c r="Q15" s="13"/>
       <c r="R15" s="14"/>
     </row>
-    <row r="16" spans="1:18" s="29" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="29" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="23" t="s">
         <v>21</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
     </row>
-    <row r="17" spans="1:18" s="29" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="29" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="23" t="s">
         <v>21</v>
       </c>
@@ -3002,7 +3002,7 @@
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
     </row>
-    <row r="18" spans="1:18" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="23" t="s">
         <v>19</v>
       </c>
@@ -3036,7 +3036,7 @@
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
     </row>
-    <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="23" t="s">
         <v>19</v>
       </c>
@@ -3070,7 +3070,7 @@
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
     </row>
-    <row r="20" spans="1:18" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="23" t="s">
         <v>19</v>
       </c>
@@ -3104,7 +3104,7 @@
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
     </row>
-    <row r="21" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="23" t="s">
         <v>19</v>
       </c>
@@ -3138,7 +3138,7 @@
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
     </row>
-    <row r="22" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -3158,7 +3158,7 @@
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
     </row>
-    <row r="23" spans="1:18" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="23" t="s">
         <v>19</v>
       </c>
@@ -3192,7 +3192,7 @@
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
     </row>
-    <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="23" t="s">
         <v>19</v>
       </c>
@@ -3226,7 +3226,7 @@
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
     </row>
-    <row r="25" spans="1:18" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="23" t="s">
         <v>19</v>
       </c>
@@ -3260,7 +3260,7 @@
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
     </row>
-    <row r="26" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="23" t="s">
         <v>19</v>
       </c>
@@ -3294,7 +3294,7 @@
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
     </row>
-    <row r="28" spans="1:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="23" t="s">
         <v>22</v>
       </c>
@@ -3326,7 +3326,7 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="23" t="s">
         <v>23</v>
       </c>
@@ -3354,7 +3354,7 @@
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="24" t="s">
         <v>24</v>
       </c>
@@ -3397,19 +3397,19 @@
       <selection pane="bottomLeft" activeCell="A100" sqref="A100:XFD121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="29" customWidth="1"/>
-    <col min="3" max="3" width="76.25" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="77.875" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.21875" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.109375" style="29" customWidth="1"/>
+    <col min="5" max="5" width="77.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.38671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>600</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>600</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>600</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>600</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>87</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>88</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>88</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>88</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>88</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>88</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>88</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>88</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>88</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>88</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>88</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>88</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>88</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>88</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>88</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>88</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>88</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>88</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>88</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>88</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>88</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>88</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>88</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>88</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>88</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>88</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>88</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>88</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>88</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>88</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>88</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>88</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>88</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>88</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>88</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>88</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>88</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>88</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>88</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>88</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>88</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>88</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>88</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>88</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>88</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>88</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>88</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>88</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>88</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>88</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>88</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>88</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>88</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>88</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>88</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>89</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>89</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>89</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>89</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>89</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>89</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>89</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>89</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>89</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>89</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>89</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>89</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>89</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>89</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>89</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>89</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>89</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>89</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>89</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>89</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>89</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>89</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>89</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>89</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>89</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>89</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>89</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>89</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>89</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>89</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>89</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>89</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>89</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>89</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>89</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>89</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>89</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>89</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>89</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>89</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>89</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>89</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>89</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>89</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>89</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>89</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>89</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>89</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>89</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>89</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>89</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>89</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>89</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>89</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>89</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>89</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>89</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>89</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>89</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>89</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>89</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>89</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>89</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>89</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>89</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>89</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>89</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>89</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>89</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>89</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>89</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>89</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>89</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>89</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>89</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>89</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>89</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>89</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>89</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>89</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>89</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>89</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>89</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>89</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>89</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>89</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>89</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>89</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>89</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>89</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>89</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>89</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>89</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>89</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>89</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>89</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>89</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>89</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>89</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>89</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>89</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>89</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>89</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>89</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>89</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>89</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>89</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>89</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>89</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>89</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>89</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>89</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>89</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>89</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>89</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>89</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>89</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>89</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>89</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>89</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>89</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>89</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>89</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>89</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>89</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>89</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>89</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>89</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>89</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>89</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>89</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>89</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>89</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>89</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>89</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>89</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>89</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>89</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>89</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>89</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>89</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>89</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>89</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>89</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>89</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>89</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>89</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>89</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>89</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>89</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>89</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>89</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>89</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>89</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>89</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>89</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>89</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>89</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>89</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>89</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>89</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>89</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>89</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>89</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>89</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>89</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>89</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>89</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>89</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>89</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>89</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>89</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>89</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>89</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>89</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>89</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>89</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>89</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>89</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>89</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>89</v>
       </c>
@@ -9348,7 +9348,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>89</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>89</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>89</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>89</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>89</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>89</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>89</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>89</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>89</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>89</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>89</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>89</v>
       </c>
@@ -9588,7 +9588,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>89</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>89</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>89</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>89</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>89</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>89</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>89</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>89</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>89</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>89</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>89</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>89</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>89</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>89</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>89</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>89</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>89</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>89</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>89</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>89</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>89</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>89</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>89</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>89</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>89</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>89</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>89</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>89</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>89</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>89</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>89</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>89</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>89</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>89</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>89</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>89</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>89</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>89</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>89</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>89</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>89</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>89</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>89</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>89</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>89</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>89</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>89</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>89</v>
       </c>
@@ -10548,7 +10548,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>89</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>89</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>89</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>89</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>89</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>89</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>89</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>89</v>
       </c>
@@ -10708,7 +10708,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>89</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>89</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>89</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>89</v>
       </c>
@@ -10788,7 +10788,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>89</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>89</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>89</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>89</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>89</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>89</v>
       </c>
@@ -10908,7 +10908,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>89</v>
       </c>
@@ -10928,7 +10928,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>89</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>89</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
         <v>89</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
         <v>89</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
         <v>89</v>
       </c>
@@ -11028,7 +11028,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
         <v>89</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
         <v>89</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
         <v>89</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
         <v>89</v>
       </c>
@@ -11108,7 +11108,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
         <v>89</v>
       </c>
@@ -11128,7 +11128,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
         <v>89</v>
       </c>
@@ -11148,7 +11148,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
         <v>89</v>
       </c>
@@ -11168,7 +11168,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
         <v>89</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
         <v>89</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
         <v>89</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
         <v>89</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
         <v>89</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
         <v>89</v>
       </c>
@@ -11288,7 +11288,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
         <v>89</v>
       </c>
@@ -11308,7 +11308,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
         <v>89</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
         <v>89</v>
       </c>
@@ -11348,7 +11348,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" t="s">
         <v>89</v>
       </c>
@@ -11368,7 +11368,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" t="s">
         <v>89</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" t="s">
         <v>89</v>
       </c>
@@ -11408,7 +11408,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" t="s">
         <v>89</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" t="s">
         <v>89</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" t="s">
         <v>89</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" t="s">
         <v>89</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" t="s">
         <v>89</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" t="s">
         <v>89</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" t="s">
         <v>89</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" t="s">
         <v>89</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" t="s">
         <v>89</v>
       </c>
@@ -11588,7 +11588,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" t="s">
         <v>89</v>
       </c>
@@ -11608,7 +11608,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" t="s">
         <v>89</v>
       </c>
@@ -11628,7 +11628,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" t="s">
         <v>89</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" t="s">
         <v>89</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" t="s">
         <v>89</v>
       </c>
@@ -11688,7 +11688,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" t="s">
         <v>89</v>
       </c>
@@ -11708,7 +11708,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" t="s">
         <v>89</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" t="s">
         <v>89</v>
       </c>
@@ -11748,7 +11748,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" t="s">
         <v>89</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" t="s">
         <v>89</v>
       </c>
@@ -11788,7 +11788,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" t="s">
         <v>89</v>
       </c>
@@ -11808,7 +11808,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" t="s">
         <v>89</v>
       </c>
@@ -11828,7 +11828,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" t="s">
         <v>89</v>
       </c>
@@ -11848,7 +11848,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" t="s">
         <v>89</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" t="s">
         <v>89</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" t="s">
         <v>89</v>
       </c>
@@ -11908,7 +11908,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" t="s">
         <v>89</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" t="s">
         <v>89</v>
       </c>
@@ -11948,7 +11948,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" t="s">
         <v>89</v>
       </c>
@@ -11968,7 +11968,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" t="s">
         <v>89</v>
       </c>
@@ -11988,7 +11988,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" t="s">
         <v>89</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" t="s">
         <v>89</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" t="s">
         <v>89</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" t="s">
         <v>89</v>
       </c>
@@ -12068,7 +12068,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" t="s">
         <v>89</v>
       </c>
@@ -12088,7 +12088,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" t="s">
         <v>89</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" t="s">
         <v>89</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" t="s">
         <v>89</v>
       </c>
@@ -12148,7 +12148,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" t="s">
         <v>89</v>
       </c>
@@ -12168,7 +12168,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" t="s">
         <v>89</v>
       </c>
@@ -12188,7 +12188,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" t="s">
         <v>89</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" t="s">
         <v>89</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" t="s">
         <v>89</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" t="s">
         <v>89</v>
       </c>
@@ -12268,7 +12268,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" t="s">
         <v>89</v>
       </c>
@@ -12288,7 +12288,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" t="s">
         <v>89</v>
       </c>
@@ -12308,7 +12308,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" t="s">
         <v>89</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" t="s">
         <v>89</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" t="s">
         <v>89</v>
       </c>
@@ -12368,7 +12368,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" t="s">
         <v>89</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" t="s">
         <v>89</v>
       </c>
@@ -12408,7 +12408,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" t="s">
         <v>89</v>
       </c>
@@ -12428,7 +12428,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" t="s">
         <v>89</v>
       </c>
@@ -12448,7 +12448,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" t="s">
         <v>89</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" t="s">
         <v>89</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" t="s">
         <v>89</v>
       </c>
@@ -12508,7 +12508,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" t="s">
         <v>89</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="463" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" t="s">
         <v>89</v>
       </c>
@@ -12548,7 +12548,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" t="s">
         <v>89</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" t="s">
         <v>89</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" t="s">
         <v>89</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" t="s">
         <v>89</v>
       </c>
@@ -12628,7 +12628,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" t="s">
         <v>89</v>
       </c>
@@ -12648,7 +12648,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" t="s">
         <v>89</v>
       </c>
@@ -12668,7 +12668,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" t="s">
         <v>89</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" t="s">
         <v>89</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" t="s">
         <v>89</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" t="s">
         <v>89</v>
       </c>
@@ -12748,7 +12748,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" t="s">
         <v>89</v>
       </c>
@@ -12768,7 +12768,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" t="s">
         <v>89</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" t="s">
         <v>89</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" t="s">
         <v>89</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" t="s">
         <v>89</v>
       </c>
@@ -12848,7 +12848,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="479" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" t="s">
         <v>89</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" t="s">
         <v>89</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" t="s">
         <v>89</v>
       </c>
@@ -12908,7 +12908,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" t="s">
         <v>89</v>
       </c>
@@ -12928,7 +12928,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" t="s">
         <v>89</v>
       </c>
@@ -12948,7 +12948,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" t="s">
         <v>89</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" t="s">
         <v>89</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" t="s">
         <v>89</v>
       </c>
@@ -13008,7 +13008,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" t="s">
         <v>89</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" t="s">
         <v>89</v>
       </c>
@@ -13048,7 +13048,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" t="s">
         <v>89</v>
       </c>
@@ -13068,7 +13068,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" t="s">
         <v>89</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" t="s">
         <v>89</v>
       </c>
@@ -13108,7 +13108,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" t="s">
         <v>89</v>
       </c>
@@ -13128,7 +13128,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" t="s">
         <v>89</v>
       </c>
@@ -13148,7 +13148,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" t="s">
         <v>89</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" t="s">
         <v>89</v>
       </c>
@@ -13188,7 +13188,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" t="s">
         <v>89</v>
       </c>
@@ -13208,7 +13208,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" t="s">
         <v>89</v>
       </c>
@@ -13228,7 +13228,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" t="s">
         <v>89</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" t="s">
         <v>89</v>
       </c>
@@ -13268,7 +13268,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" t="s">
         <v>89</v>
       </c>
@@ -13288,7 +13288,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" t="s">
         <v>89</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" t="s">
         <v>89</v>
       </c>
@@ -13328,7 +13328,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" t="s">
         <v>89</v>
       </c>
@@ -13348,7 +13348,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" t="s">
         <v>89</v>
       </c>
@@ -13368,7 +13368,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" t="s">
         <v>89</v>
       </c>
@@ -13388,7 +13388,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" t="s">
         <v>89</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" t="s">
         <v>89</v>
       </c>
@@ -13428,7 +13428,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" t="s">
         <v>89</v>
       </c>
@@ -13448,7 +13448,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" t="s">
         <v>125</v>
       </c>
@@ -13468,7 +13468,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" t="s">
         <v>125</v>
       </c>
@@ -13488,7 +13488,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" t="s">
         <v>125</v>
       </c>
@@ -13508,7 +13508,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" t="s">
         <v>125</v>
       </c>
@@ -13528,7 +13528,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" t="s">
         <v>125</v>
       </c>
@@ -13548,7 +13548,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" t="s">
         <v>125</v>
       </c>
@@ -13568,7 +13568,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" t="s">
         <v>125</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" t="s">
         <v>125</v>
       </c>
@@ -13608,7 +13608,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" t="s">
         <v>125</v>
       </c>
@@ -13628,7 +13628,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" t="s">
         <v>125</v>
       </c>
@@ -13648,7 +13648,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" t="s">
         <v>125</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" t="s">
         <v>125</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" t="s">
         <v>125</v>
       </c>
@@ -13708,7 +13708,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" t="s">
         <v>125</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" t="s">
         <v>125</v>
       </c>
@@ -13748,7 +13748,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" t="s">
         <v>125</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" t="s">
         <v>125</v>
       </c>
@@ -13788,7 +13788,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" t="s">
         <v>125</v>
       </c>
@@ -13808,7 +13808,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" t="s">
         <v>125</v>
       </c>
@@ -13828,7 +13828,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" t="s">
         <v>125</v>
       </c>
@@ -13848,7 +13848,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" t="s">
         <v>125</v>
       </c>
@@ -13868,7 +13868,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" t="s">
         <v>125</v>
       </c>
@@ -13888,7 +13888,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" t="s">
         <v>125</v>
       </c>
@@ -13908,7 +13908,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" t="s">
         <v>125</v>
       </c>
@@ -13928,7 +13928,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" t="s">
         <v>125</v>
       </c>
@@ -13948,7 +13948,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" t="s">
         <v>125</v>
       </c>
@@ -13968,7 +13968,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" t="s">
         <v>125</v>
       </c>
@@ -13988,7 +13988,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" t="s">
         <v>125</v>
       </c>
@@ -14008,7 +14008,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" t="s">
         <v>125</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" t="s">
         <v>125</v>
       </c>
@@ -14048,7 +14048,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" t="s">
         <v>125</v>
       </c>
@@ -14068,7 +14068,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" t="s">
         <v>125</v>
       </c>
@@ -14088,7 +14088,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" t="s">
         <v>125</v>
       </c>
@@ -14108,7 +14108,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" t="s">
         <v>125</v>
       </c>
@@ -14128,7 +14128,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" t="s">
         <v>125</v>
       </c>
@@ -14148,7 +14148,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" t="s">
         <v>125</v>
       </c>
@@ -14168,7 +14168,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" t="s">
         <v>125</v>
       </c>
@@ -14188,7 +14188,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" t="s">
         <v>125</v>
       </c>
@@ -14208,7 +14208,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" t="s">
         <v>125</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" t="s">
         <v>125</v>
       </c>
@@ -14248,7 +14248,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" t="s">
         <v>125</v>
       </c>
@@ -14268,7 +14268,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" t="s">
         <v>125</v>
       </c>
@@ -14288,7 +14288,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" t="s">
         <v>125</v>
       </c>
@@ -14308,7 +14308,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" t="s">
         <v>125</v>
       </c>
@@ -14328,7 +14328,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" t="s">
         <v>125</v>
       </c>
@@ -14348,7 +14348,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" t="s">
         <v>125</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" t="s">
         <v>125</v>
       </c>
@@ -14388,7 +14388,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" t="s">
         <v>125</v>
       </c>
@@ -14408,7 +14408,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" t="s">
         <v>125</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" t="s">
         <v>125</v>
       </c>
@@ -14448,7 +14448,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" t="s">
         <v>125</v>
       </c>
@@ -14468,7 +14468,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" t="s">
         <v>125</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" t="s">
         <v>125</v>
       </c>
@@ -14508,7 +14508,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" t="s">
         <v>125</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" t="s">
         <v>125</v>
       </c>
@@ -14548,7 +14548,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" t="s">
         <v>125</v>
       </c>
@@ -14568,7 +14568,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" t="s">
         <v>125</v>
       </c>
@@ -14588,7 +14588,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" t="s">
         <v>125</v>
       </c>
@@ -14608,7 +14608,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" t="s">
         <v>125</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" t="s">
         <v>125</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" t="s">
         <v>125</v>
       </c>
@@ -14668,7 +14668,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" t="s">
         <v>125</v>
       </c>
@@ -14688,7 +14688,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" t="s">
         <v>125</v>
       </c>
@@ -14708,7 +14708,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" t="s">
         <v>125</v>
       </c>
@@ -14728,7 +14728,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" t="s">
         <v>125</v>
       </c>
@@ -14748,7 +14748,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" t="s">
         <v>125</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" t="s">
         <v>125</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" t="s">
         <v>125</v>
       </c>
@@ -14808,7 +14808,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" t="s">
         <v>125</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" t="s">
         <v>125</v>
       </c>
@@ -14848,7 +14848,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" t="s">
         <v>125</v>
       </c>
@@ -14868,7 +14868,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" t="s">
         <v>125</v>
       </c>
@@ -14888,7 +14888,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" t="s">
         <v>125</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" t="s">
         <v>125</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" t="s">
         <v>125</v>
       </c>
@@ -14948,7 +14948,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" t="s">
         <v>125</v>
       </c>
@@ -14968,7 +14968,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" t="s">
         <v>125</v>
       </c>
@@ -14988,7 +14988,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" t="s">
         <v>125</v>
       </c>
@@ -15008,7 +15008,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" t="s">
         <v>125</v>
       </c>
@@ -15028,7 +15028,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" t="s">
         <v>125</v>
       </c>
@@ -15048,7 +15048,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" t="s">
         <v>125</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" t="s">
         <v>125</v>
       </c>
@@ -15088,7 +15088,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" t="s">
         <v>125</v>
       </c>
@@ -15108,7 +15108,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" t="s">
         <v>125</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" t="s">
         <v>125</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" t="s">
         <v>125</v>
       </c>
@@ -15168,7 +15168,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" t="s">
         <v>125</v>
       </c>
@@ -15188,7 +15188,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" t="s">
         <v>125</v>
       </c>
@@ -15208,7 +15208,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" t="s">
         <v>125</v>
       </c>
@@ -15228,7 +15228,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" t="s">
         <v>125</v>
       </c>
@@ -15248,7 +15248,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" t="s">
         <v>125</v>
       </c>
@@ -15268,7 +15268,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" t="s">
         <v>125</v>
       </c>
@@ -15288,7 +15288,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" t="s">
         <v>125</v>
       </c>
@@ -15308,7 +15308,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" t="s">
         <v>125</v>
       </c>
@@ -15328,7 +15328,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" t="s">
         <v>125</v>
       </c>
@@ -15348,7 +15348,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" t="s">
         <v>125</v>
       </c>
@@ -15368,7 +15368,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" t="s">
         <v>125</v>
       </c>
@@ -15388,7 +15388,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" t="s">
         <v>125</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" t="s">
         <v>125</v>
       </c>
@@ -15428,7 +15428,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" t="s">
         <v>125</v>
       </c>
@@ -15448,7 +15448,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" t="s">
         <v>125</v>
       </c>
@@ -15468,7 +15468,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" t="s">
         <v>125</v>
       </c>
@@ -15488,7 +15488,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" t="s">
         <v>125</v>
       </c>
@@ -15508,7 +15508,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" t="s">
         <v>125</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" t="s">
         <v>125</v>
       </c>
@@ -15548,7 +15548,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" t="s">
         <v>125</v>
       </c>
@@ -15568,7 +15568,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" t="s">
         <v>125</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" t="s">
         <v>125</v>
       </c>
@@ -15608,7 +15608,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" t="s">
         <v>125</v>
       </c>
@@ -15628,7 +15628,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" t="s">
         <v>125</v>
       </c>
@@ -15648,7 +15648,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" t="s">
         <v>125</v>
       </c>
@@ -15668,7 +15668,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" t="s">
         <v>125</v>
       </c>
@@ -15688,7 +15688,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" t="s">
         <v>125</v>
       </c>
@@ -15708,7 +15708,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" t="s">
         <v>125</v>
       </c>
@@ -15728,7 +15728,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" t="s">
         <v>125</v>
       </c>
@@ -15748,7 +15748,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" t="s">
         <v>125</v>
       </c>
@@ -15768,7 +15768,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" t="s">
         <v>125</v>
       </c>
@@ -15788,7 +15788,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" t="s">
         <v>125</v>
       </c>
@@ -15808,7 +15808,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" t="s">
         <v>125</v>
       </c>
@@ -15828,7 +15828,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" t="s">
         <v>125</v>
       </c>
@@ -15848,7 +15848,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" t="s">
         <v>125</v>
       </c>
@@ -15868,7 +15868,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" t="s">
         <v>125</v>
       </c>
@@ -15888,7 +15888,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" t="s">
         <v>125</v>
       </c>
@@ -15908,7 +15908,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" t="s">
         <v>125</v>
       </c>
@@ -15928,7 +15928,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" t="s">
         <v>125</v>
       </c>
@@ -15948,7 +15948,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" t="s">
         <v>125</v>
       </c>
@@ -15968,7 +15968,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" t="s">
         <v>125</v>
       </c>
@@ -15988,7 +15988,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" t="s">
         <v>125</v>
       </c>
@@ -16008,7 +16008,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" t="s">
         <v>125</v>
       </c>
@@ -16028,7 +16028,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" t="s">
         <v>125</v>
       </c>
@@ -16048,7 +16048,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" t="s">
         <v>125</v>
       </c>
@@ -16068,7 +16068,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" t="s">
         <v>125</v>
       </c>
@@ -16088,7 +16088,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" t="s">
         <v>125</v>
       </c>
@@ -16108,7 +16108,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" t="s">
         <v>125</v>
       </c>
@@ -16128,7 +16128,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" t="s">
         <v>125</v>
       </c>
@@ -16148,7 +16148,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" t="s">
         <v>125</v>
       </c>
@@ -16168,7 +16168,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" t="s">
         <v>125</v>
       </c>
@@ -16188,7 +16188,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" t="s">
         <v>125</v>
       </c>
@@ -16208,7 +16208,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" t="s">
         <v>125</v>
       </c>
@@ -16228,7 +16228,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" t="s">
         <v>125</v>
       </c>
@@ -16248,7 +16248,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" t="s">
         <v>125</v>
       </c>
@@ -16268,7 +16268,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" t="s">
         <v>125</v>
       </c>
@@ -16288,7 +16288,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" t="s">
         <v>125</v>
       </c>
@@ -16308,7 +16308,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" t="s">
         <v>125</v>
       </c>
@@ -16328,7 +16328,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" t="s">
         <v>125</v>
       </c>
@@ -16348,7 +16348,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" t="s">
         <v>125</v>
       </c>
@@ -16368,7 +16368,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" t="s">
         <v>125</v>
       </c>
@@ -16388,7 +16388,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" t="s">
         <v>125</v>
       </c>
@@ -16408,7 +16408,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" t="s">
         <v>125</v>
       </c>
@@ -16428,7 +16428,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" t="s">
         <v>125</v>
       </c>
@@ -16448,7 +16448,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" t="s">
         <v>125</v>
       </c>
@@ -16468,7 +16468,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" t="s">
         <v>125</v>
       </c>
@@ -16488,7 +16488,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" t="s">
         <v>125</v>
       </c>
@@ -16508,7 +16508,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" t="s">
         <v>125</v>
       </c>
@@ -16528,7 +16528,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" t="s">
         <v>125</v>
       </c>
@@ -16548,7 +16548,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" t="s">
         <v>125</v>
       </c>
@@ -16568,7 +16568,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" t="s">
         <v>125</v>
       </c>
@@ -16588,7 +16588,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" t="s">
         <v>125</v>
       </c>
@@ -16608,7 +16608,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" t="s">
         <v>125</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" t="s">
         <v>125</v>
       </c>
@@ -16648,7 +16648,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" t="s">
         <v>125</v>
       </c>
@@ -16668,7 +16668,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" t="s">
         <v>125</v>
       </c>
@@ -16688,7 +16688,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" t="s">
         <v>125</v>
       </c>
@@ -16708,7 +16708,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" t="s">
         <v>125</v>
       </c>
@@ -16728,7 +16728,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" t="s">
         <v>125</v>
       </c>
@@ -16748,7 +16748,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" t="s">
         <v>125</v>
       </c>
@@ -16768,7 +16768,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" t="s">
         <v>125</v>
       </c>
@@ -16788,7 +16788,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" t="s">
         <v>125</v>
       </c>
@@ -16808,7 +16808,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" t="s">
         <v>125</v>
       </c>
@@ -16828,7 +16828,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" t="s">
         <v>125</v>
       </c>
@@ -16848,7 +16848,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" t="s">
         <v>125</v>
       </c>
@@ -16868,7 +16868,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" t="s">
         <v>125</v>
       </c>
@@ -16888,7 +16888,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" t="s">
         <v>125</v>
       </c>
@@ -16908,7 +16908,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" t="s">
         <v>125</v>
       </c>
@@ -16928,7 +16928,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" t="s">
         <v>125</v>
       </c>
@@ -16948,7 +16948,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" t="s">
         <v>125</v>
       </c>
@@ -16968,7 +16968,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" t="s">
         <v>125</v>
       </c>
@@ -16988,7 +16988,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" t="s">
         <v>125</v>
       </c>
@@ -17008,7 +17008,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" t="s">
         <v>125</v>
       </c>
@@ -17028,7 +17028,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" t="s">
         <v>125</v>
       </c>
@@ -17048,7 +17048,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" t="s">
         <v>125</v>
       </c>
@@ -17068,7 +17068,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" t="s">
         <v>125</v>
       </c>
@@ -17088,7 +17088,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" t="s">
         <v>125</v>
       </c>
@@ -17108,7 +17108,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" t="s">
         <v>125</v>
       </c>
@@ -17128,7 +17128,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" t="s">
         <v>125</v>
       </c>
@@ -17148,7 +17148,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" t="s">
         <v>125</v>
       </c>
@@ -17168,7 +17168,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" t="s">
         <v>125</v>
       </c>
@@ -17188,7 +17188,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" t="s">
         <v>125</v>
       </c>
@@ -17208,7 +17208,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" t="s">
         <v>125</v>
       </c>
@@ -17228,7 +17228,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" t="s">
         <v>125</v>
       </c>
@@ -17248,7 +17248,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" t="s">
         <v>125</v>
       </c>
@@ -17268,7 +17268,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" t="s">
         <v>125</v>
       </c>
@@ -17288,7 +17288,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" t="s">
         <v>125</v>
       </c>
@@ -17308,7 +17308,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" t="s">
         <v>125</v>
       </c>
@@ -17328,7 +17328,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" t="s">
         <v>125</v>
       </c>
@@ -17348,7 +17348,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" t="s">
         <v>125</v>
       </c>
@@ -17368,7 +17368,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" t="s">
         <v>125</v>
       </c>
@@ -17388,7 +17388,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" t="s">
         <v>125</v>
       </c>
@@ -17408,7 +17408,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" t="s">
         <v>125</v>
       </c>
@@ -17428,7 +17428,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" t="s">
         <v>125</v>
       </c>
@@ -17448,7 +17448,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" t="s">
         <v>125</v>
       </c>
@@ -17468,7 +17468,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" t="s">
         <v>125</v>
       </c>
@@ -17488,7 +17488,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" t="s">
         <v>125</v>
       </c>
@@ -17508,7 +17508,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" t="s">
         <v>125</v>
       </c>
@@ -17528,7 +17528,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" t="s">
         <v>125</v>
       </c>
@@ -17548,7 +17548,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" t="s">
         <v>125</v>
       </c>
@@ -17568,7 +17568,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" t="s">
         <v>125</v>
       </c>
@@ -17588,7 +17588,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" t="s">
         <v>125</v>
       </c>
@@ -17608,7 +17608,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" t="s">
         <v>125</v>
       </c>
@@ -17628,7 +17628,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" t="s">
         <v>125</v>
       </c>
@@ -17648,7 +17648,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" t="s">
         <v>125</v>
       </c>
@@ -17668,7 +17668,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" t="s">
         <v>125</v>
       </c>
@@ -17688,7 +17688,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" t="s">
         <v>125</v>
       </c>
@@ -17708,7 +17708,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" t="s">
         <v>125</v>
       </c>
@@ -17728,7 +17728,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" t="s">
         <v>125</v>
       </c>
@@ -17748,7 +17748,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" t="s">
         <v>125</v>
       </c>
@@ -17768,7 +17768,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" t="s">
         <v>125</v>
       </c>
@@ -17788,7 +17788,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" t="s">
         <v>125</v>
       </c>
@@ -17808,7 +17808,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" t="s">
         <v>125</v>
       </c>
@@ -17828,7 +17828,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" t="s">
         <v>125</v>
       </c>
@@ -17848,7 +17848,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" t="s">
         <v>125</v>
       </c>
@@ -17868,7 +17868,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" t="s">
         <v>125</v>
       </c>
@@ -17888,7 +17888,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" t="s">
         <v>125</v>
       </c>
@@ -17908,7 +17908,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" t="s">
         <v>125</v>
       </c>
@@ -17928,7 +17928,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" t="s">
         <v>125</v>
       </c>
@@ -17948,7 +17948,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" t="s">
         <v>125</v>
       </c>
@@ -17968,7 +17968,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" t="s">
         <v>125</v>
       </c>
@@ -17988,7 +17988,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" t="s">
         <v>125</v>
       </c>
@@ -18008,7 +18008,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" t="s">
         <v>125</v>
       </c>
@@ -18028,7 +18028,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" t="s">
         <v>125</v>
       </c>
@@ -18048,7 +18048,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" t="s">
         <v>125</v>
       </c>
@@ -18068,7 +18068,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" t="s">
         <v>125</v>
       </c>
@@ -18088,7 +18088,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" t="s">
         <v>125</v>
       </c>
@@ -18108,7 +18108,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" t="s">
         <v>125</v>
       </c>
@@ -18128,7 +18128,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" t="s">
         <v>125</v>
       </c>
@@ -18148,7 +18148,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" t="s">
         <v>125</v>
       </c>
@@ -18168,7 +18168,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" t="s">
         <v>125</v>
       </c>
@@ -18188,7 +18188,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" t="s">
         <v>125</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" t="s">
         <v>125</v>
       </c>
@@ -18228,7 +18228,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" t="s">
         <v>125</v>
       </c>
@@ -18248,7 +18248,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" t="s">
         <v>125</v>
       </c>
@@ -18268,7 +18268,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" t="s">
         <v>125</v>
       </c>
@@ -18288,7 +18288,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" t="s">
         <v>125</v>
       </c>
@@ -18308,7 +18308,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" t="s">
         <v>125</v>
       </c>
@@ -18328,7 +18328,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" t="s">
         <v>125</v>
       </c>
@@ -18348,7 +18348,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" t="s">
         <v>125</v>
       </c>
@@ -18368,7 +18368,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" t="s">
         <v>125</v>
       </c>
@@ -18388,7 +18388,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" t="s">
         <v>125</v>
       </c>
@@ -18408,7 +18408,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" t="s">
         <v>125</v>
       </c>
@@ -18428,7 +18428,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" t="s">
         <v>125</v>
       </c>
@@ -18448,7 +18448,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A760" t="s">
         <v>125</v>
       </c>
@@ -18468,7 +18468,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A761" t="s">
         <v>125</v>
       </c>
@@ -18488,7 +18488,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A762" t="s">
         <v>125</v>
       </c>
@@ -18508,7 +18508,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A763" t="s">
         <v>125</v>
       </c>
@@ -18528,7 +18528,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A764" t="s">
         <v>125</v>
       </c>
@@ -18548,7 +18548,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A765" t="s">
         <v>125</v>
       </c>
@@ -18568,7 +18568,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A766" t="s">
         <v>125</v>
       </c>
@@ -18588,7 +18588,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A767" t="s">
         <v>125</v>
       </c>
@@ -18608,7 +18608,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A768" t="s">
         <v>125</v>
       </c>
@@ -18628,7 +18628,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A769" t="s">
         <v>125</v>
       </c>
@@ -18648,7 +18648,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A770" t="s">
         <v>125</v>
       </c>
@@ -18668,7 +18668,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A771" t="s">
         <v>125</v>
       </c>
@@ -18688,7 +18688,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A772" t="s">
         <v>125</v>
       </c>
@@ -18708,7 +18708,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A773" t="s">
         <v>125</v>
       </c>
@@ -18728,7 +18728,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A774" t="s">
         <v>125</v>
       </c>
@@ -18748,7 +18748,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A775" t="s">
         <v>125</v>
       </c>
@@ -18768,7 +18768,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A776" t="s">
         <v>125</v>
       </c>
@@ -18788,7 +18788,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A777" t="s">
         <v>125</v>
       </c>
@@ -18808,7 +18808,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A778" t="s">
         <v>125</v>
       </c>
@@ -18828,7 +18828,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A779" t="s">
         <v>125</v>
       </c>
@@ -18848,7 +18848,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A780" t="s">
         <v>125</v>
       </c>
@@ -18868,7 +18868,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A781" t="s">
         <v>125</v>
       </c>
@@ -18888,7 +18888,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A782" t="s">
         <v>125</v>
       </c>
@@ -18908,7 +18908,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A783" t="s">
         <v>125</v>
       </c>
@@ -18928,7 +18928,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A784" t="s">
         <v>125</v>
       </c>
@@ -18948,7 +18948,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A785" t="s">
         <v>125</v>
       </c>
@@ -18968,7 +18968,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A786" t="s">
         <v>125</v>
       </c>
@@ -18988,7 +18988,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A787" t="s">
         <v>125</v>
       </c>
@@ -19008,7 +19008,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A788" t="s">
         <v>125</v>
       </c>
@@ -19028,7 +19028,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A789" t="s">
         <v>125</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A790" t="s">
         <v>125</v>
       </c>
@@ -19068,7 +19068,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A791" t="s">
         <v>125</v>
       </c>
@@ -19088,7 +19088,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A792" t="s">
         <v>125</v>
       </c>
@@ -19108,7 +19108,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A793" t="s">
         <v>125</v>
       </c>
@@ -19128,7 +19128,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A794" t="s">
         <v>125</v>
       </c>
@@ -19148,7 +19148,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A795" t="s">
         <v>125</v>
       </c>
@@ -19168,7 +19168,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A796" t="s">
         <v>125</v>
       </c>
@@ -19188,7 +19188,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A797" t="s">
         <v>125</v>
       </c>
@@ -19208,7 +19208,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A798" t="s">
         <v>125</v>
       </c>
@@ -19228,7 +19228,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A799" t="s">
         <v>125</v>
       </c>
@@ -19248,7 +19248,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A800" t="s">
         <v>125</v>
       </c>
@@ -19268,7 +19268,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A801" t="s">
         <v>125</v>
       </c>
@@ -19288,7 +19288,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A802" t="s">
         <v>125</v>
       </c>
@@ -19308,7 +19308,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A803" t="s">
         <v>125</v>
       </c>
@@ -19328,7 +19328,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A804" t="s">
         <v>125</v>
       </c>
@@ -19348,7 +19348,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A805" t="s">
         <v>125</v>
       </c>
@@ -19368,7 +19368,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A806" t="s">
         <v>125</v>
       </c>
@@ -19388,7 +19388,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A807" t="s">
         <v>125</v>
       </c>
@@ -19408,7 +19408,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A808" t="s">
         <v>125</v>
       </c>
@@ -19428,7 +19428,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A809" t="s">
         <v>125</v>
       </c>
@@ -19448,7 +19448,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A810" t="s">
         <v>125</v>
       </c>
@@ -19468,7 +19468,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A811" t="s">
         <v>125</v>
       </c>
@@ -19488,7 +19488,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A812" t="s">
         <v>125</v>
       </c>
@@ -19508,7 +19508,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A813" t="s">
         <v>125</v>
       </c>
@@ -19528,7 +19528,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A814" t="s">
         <v>125</v>
       </c>
@@ -19548,7 +19548,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A815" t="s">
         <v>125</v>
       </c>
@@ -19568,7 +19568,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A816" t="s">
         <v>125</v>
       </c>
@@ -19588,7 +19588,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A817" t="s">
         <v>125</v>
       </c>
@@ -19608,7 +19608,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A818" t="s">
         <v>125</v>
       </c>
@@ -19628,7 +19628,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A819" t="s">
         <v>125</v>
       </c>
@@ -19648,7 +19648,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A820" t="s">
         <v>125</v>
       </c>
@@ -19668,7 +19668,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A821" t="s">
         <v>125</v>
       </c>
@@ -19688,7 +19688,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="822" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A822" t="s">
         <v>125</v>
       </c>
@@ -19708,7 +19708,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="823" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A823" t="s">
         <v>125</v>
       </c>
@@ -19728,7 +19728,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="824" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A824" t="s">
         <v>125</v>
       </c>
@@ -19748,7 +19748,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="825" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A825" t="s">
         <v>125</v>
       </c>
@@ -19768,7 +19768,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="826" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A826" t="s">
         <v>125</v>
       </c>
@@ -19788,7 +19788,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A827" t="s">
         <v>125</v>
       </c>
@@ -19808,7 +19808,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A828" t="s">
         <v>125</v>
       </c>
@@ -19828,7 +19828,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="829" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A829" t="s">
         <v>125</v>
       </c>
@@ -19848,7 +19848,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="830" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A830" t="s">
         <v>125</v>
       </c>
@@ -19868,7 +19868,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="831" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A831" t="s">
         <v>125</v>
       </c>
@@ -19888,7 +19888,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="832" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A832" t="s">
         <v>125</v>
       </c>
@@ -19908,7 +19908,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="833" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A833" t="s">
         <v>125</v>
       </c>
@@ -19928,7 +19928,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="834" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A834" t="s">
         <v>125</v>
       </c>
@@ -19948,7 +19948,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="835" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A835" t="s">
         <v>125</v>
       </c>
@@ -19968,7 +19968,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="836" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A836" t="s">
         <v>125</v>
       </c>
@@ -19988,7 +19988,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="837" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A837" t="s">
         <v>125</v>
       </c>
@@ -20008,7 +20008,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="838" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A838" t="s">
         <v>125</v>
       </c>
@@ -20028,7 +20028,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="839" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A839" t="s">
         <v>125</v>
       </c>
@@ -20048,7 +20048,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="840" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A840" t="s">
         <v>125</v>
       </c>
@@ -20068,7 +20068,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="841" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A841" t="s">
         <v>125</v>
       </c>
@@ -20088,7 +20088,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="842" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A842" t="s">
         <v>125</v>
       </c>
@@ -20108,7 +20108,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="843" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A843" t="s">
         <v>125</v>
       </c>
@@ -20128,7 +20128,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="844" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A844" t="s">
         <v>125</v>
       </c>
@@ -20148,7 +20148,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="845" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A845" t="s">
         <v>125</v>
       </c>
@@ -20168,7 +20168,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="846" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A846" t="s">
         <v>125</v>
       </c>
@@ -20188,7 +20188,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="847" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A847" t="s">
         <v>125</v>
       </c>
@@ -20208,7 +20208,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="848" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A848" t="s">
         <v>125</v>
       </c>
@@ -20228,7 +20228,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="849" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A849" t="s">
         <v>125</v>
       </c>
@@ -20248,7 +20248,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="850" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A850" t="s">
         <v>125</v>
       </c>
@@ -20268,7 +20268,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="851" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A851" t="s">
         <v>125</v>
       </c>
@@ -20288,7 +20288,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="852" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A852" t="s">
         <v>125</v>
       </c>
@@ -20308,7 +20308,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="853" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A853" t="s">
         <v>125</v>
       </c>
@@ -20328,7 +20328,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="854" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A854" t="s">
         <v>125</v>
       </c>
@@ -20348,7 +20348,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="855" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A855" t="s">
         <v>125</v>
       </c>
@@ -20368,7 +20368,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="856" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A856" t="s">
         <v>125</v>
       </c>
@@ -20388,7 +20388,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="857" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A857" t="s">
         <v>125</v>
       </c>
@@ -20408,7 +20408,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="858" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A858" t="s">
         <v>125</v>
       </c>
@@ -20428,7 +20428,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="859" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A859" t="s">
         <v>125</v>
       </c>
@@ -20448,7 +20448,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="860" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A860" t="s">
         <v>125</v>
       </c>
@@ -20468,7 +20468,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="861" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A861" t="s">
         <v>125</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="862" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A862" t="s">
         <v>125</v>
       </c>
@@ -20508,7 +20508,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="863" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A863" t="s">
         <v>125</v>
       </c>
@@ -20528,7 +20528,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="864" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A864" t="s">
         <v>125</v>
       </c>
@@ -20548,7 +20548,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="865" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A865" t="s">
         <v>125</v>
       </c>
@@ -20568,7 +20568,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="866" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A866" t="s">
         <v>125</v>
       </c>
@@ -20588,7 +20588,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="867" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A867" t="s">
         <v>125</v>
       </c>
@@ -20608,7 +20608,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="868" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A868" t="s">
         <v>125</v>
       </c>
@@ -20628,7 +20628,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="869" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A869" t="s">
         <v>125</v>
       </c>
@@ -20648,7 +20648,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="870" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A870" t="s">
         <v>125</v>
       </c>
@@ -20668,7 +20668,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="871" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A871" t="s">
         <v>125</v>
       </c>
@@ -20688,7 +20688,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="872" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A872" t="s">
         <v>125</v>
       </c>
@@ -20708,7 +20708,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="873" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A873" t="s">
         <v>125</v>
       </c>
@@ -20728,7 +20728,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="874" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A874" t="s">
         <v>125</v>
       </c>
@@ -20748,7 +20748,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="875" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A875" t="s">
         <v>125</v>
       </c>
@@ -20768,7 +20768,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="876" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A876" t="s">
         <v>125</v>
       </c>
@@ -20788,7 +20788,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="877" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A877" t="s">
         <v>125</v>
       </c>
@@ -20808,7 +20808,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="878" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A878" t="s">
         <v>125</v>
       </c>
@@ -20828,7 +20828,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="879" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A879" t="s">
         <v>125</v>
       </c>
@@ -20848,7 +20848,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="880" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A880" t="s">
         <v>125</v>
       </c>
@@ -20868,7 +20868,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="881" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A881" t="s">
         <v>125</v>
       </c>
@@ -20888,7 +20888,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="882" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A882" t="s">
         <v>125</v>
       </c>
@@ -20908,7 +20908,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="883" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A883" t="s">
         <v>125</v>
       </c>
@@ -20928,7 +20928,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="884" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A884" t="s">
         <v>125</v>
       </c>
@@ -20948,7 +20948,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="885" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A885" t="s">
         <v>125</v>
       </c>
@@ -20968,7 +20968,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="886" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A886" t="s">
         <v>125</v>
       </c>
@@ -20988,7 +20988,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="887" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A887" t="s">
         <v>125</v>
       </c>
@@ -21008,7 +21008,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="888" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A888" t="s">
         <v>125</v>
       </c>
@@ -21028,7 +21028,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="889" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A889" t="s">
         <v>125</v>
       </c>
@@ -21048,7 +21048,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="890" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A890" t="s">
         <v>125</v>
       </c>
@@ -21068,7 +21068,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="891" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A891" t="s">
         <v>125</v>
       </c>
@@ -21088,7 +21088,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="892" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A892" t="s">
         <v>125</v>
       </c>
@@ -21108,7 +21108,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="893" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A893" t="s">
         <v>125</v>
       </c>
@@ -21128,7 +21128,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="894" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A894" t="s">
         <v>125</v>
       </c>
@@ -21148,7 +21148,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="895" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A895" t="s">
         <v>125</v>
       </c>
@@ -21178,18 +21178,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="44.125" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.38671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -21206,7 +21206,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>615</v>
       </c>
